--- a/lab08/references/T1_latex_table_export.xlsx
+++ b/lab08/references/T1_latex_table_export.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">l.p</t>
   </si>
@@ -47,9 +47,6 @@
   <si>
     <t xml:space="preserve">sqrt</t>
   </si>
-  <si>
-    <t xml:space="preserve">liest</t>
-  </si>
 </sst>
 </file>
 
@@ -60,7 +57,7 @@
     <numFmt numFmtId="165" formatCode="0.000000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -83,16 +80,139 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -100,8 +220,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -125,6 +260,54 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -140,14 +323,90 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -156,28 +415,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.57"/>
   </cols>
   <sheetData>
@@ -203,11 +462,8 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -235,11 +491,8 @@
         <f aca="false">SQRT((C2/B2)^2+(-$C$2/$B$2)^2)</f>
         <v>0.0176331566136861</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <f aca="false">SQRT(ABS(D2))</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -268,12 +521,9 @@
         <f aca="false">SQRT((C3/B3)^2+(-$C$2/$B$2)^2)</f>
         <v>0.0197388927170629</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <f aca="false">SQRT(ABS(D3))</f>
         <v>0.109544511501033</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>-0.165707774818225</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -301,12 +551,9 @@
         <f aca="false">SQRT((C4/B4)^2+(-$C$2/$B$2)^2)</f>
         <v>0.0203090076479504</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <f aca="false">SQRT(ABS(D4))</f>
         <v>0.134164078649987</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>-0.248561662227338</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -334,12 +581,9 @@
         <f aca="false">SQRT((C5/B5)^2+(-$C$2/$B$2)^2)</f>
         <v>0.0209474924373951</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <f aca="false">SQRT(ABS(D5))</f>
         <v>0.144913767461894</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>-0.289988605931894</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -367,12 +611,9 @@
         <f aca="false">SQRT((C6/B6)^2+(-$C$2/$B$2)^2)</f>
         <v>0.0224779524148558</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <f aca="false">SQRT(ABS(D6))</f>
         <v>0.173205080756888</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>-0.414269437045564</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,12 +641,9 @@
         <f aca="false">SQRT((C7/B7)^2+(-$C$2/$B$2)^2)</f>
         <v>0.0244575640531662</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <f aca="false">SQRT(ABS(D7))</f>
         <v>0.194935886896179</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>-0.52474128692438</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,12 +671,9 @@
         <f aca="false">SQRT((C8/B8)^2+(-$C$2/$B$2)^2)</f>
         <v>0.0270868122635056</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <f aca="false">SQRT(ABS(D8))</f>
         <v>0.212132034355964</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>-0.621404155568345</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,12 +701,9 @@
         <f aca="false">SQRT((C9/B9)^2+(-$C$2/$B$2)^2)</f>
         <v>0.0287415299857819</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <f aca="false">SQRT(ABS(D9))</f>
         <v>0.234520787991171</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>-0.759493967916866</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,12 +731,9 @@
         <f aca="false">SQRT((C10/B10)^2+(-$C$2/$B$2)^2)</f>
         <v>0.0330469851051302</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <f aca="false">SQRT(ABS(D10))</f>
         <v>0.254950975679639</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>-0.897583780265387</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,12 +761,9 @@
         <f aca="false">SQRT((C11/B11)^2+(-$C$2/$B$2)^2)</f>
         <v>0.0358998250610602</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <f aca="false">SQRT(ABS(D11))</f>
         <v>0.273861278752583</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>-1.03567359261391</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,12 +791,9 @@
         <f aca="false">SQRT((C12/B12)^2+(-$C$2/$B$2)^2)</f>
         <v>0.0438896051407931</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <f aca="false">SQRT(ABS(D12))</f>
         <v>0.298328677803526</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>-1.22899932990184</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,12 +821,9 @@
         <f aca="false">SQRT((C13/B13)^2+(-$C$2/$B$2)^2)</f>
         <v>0.0496828871559356</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <f aca="false">SQRT(ABS(D13))</f>
         <v>0.311448230047949</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>-1.33947117978066</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,12 +851,9 @@
         <f aca="false">SQRT((C14/B14)^2+(-$C$2/$B$2)^2)</f>
         <v>0.0574770585036287</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <f aca="false">SQRT(ABS(D14))</f>
         <v>0.327108544675923</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>-1.47756099212918</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/lab08/references/T1_latex_table_export.xlsx
+++ b/lab08/references/T1_latex_table_export.xlsx
@@ -27,25 +27,25 @@
     <t xml:space="preserve">l.p</t>
   </si>
   <si>
-    <t xml:space="preserve">I_a [µA]</t>
+    <t xml:space="preserve">U[V]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I_{a} [µA]</t>
   </si>
   <si>
     <t xml:space="preserve">\Delta I_a [mA]</t>
   </si>
   <si>
-    <t xml:space="preserve">U[V]</t>
+    <t xml:space="preserve">U_{u} [V]</t>
   </si>
   <si>
-    <t xml:space="preserve">\Delta v [mV]</t>
+    <t xml:space="preserve">ln(l_{a}/l_{a0})</t>
   </si>
   <si>
-    <t xml:space="preserve">ln l_a/l_a_0</t>
+    <t xml:space="preserve">U_{ln}</t>
   </si>
   <si>
-    <t xml:space="preserve">\Delta ln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sqrt</t>
+    <t xml:space="preserve">\sqrt(U)</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -470,29 +470,30 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>0.135</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D2" s="0" t="n">
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <f aca="false">ROUND((0.003*ABS(B2)+0.001)/SQRT(3), 5)</f>
+        <v>0.00058</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">ROUND(LN(C2/$C$2),4)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <f aca="false">(0.003*ABS(D2)+0.001)/SQRT(3)</f>
-        <v>0.000577350269189626</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <f aca="false">LN(B2/$B$2)</f>
-        <v>0</v>
-      </c>
       <c r="G2" s="1" t="n">
-        <f aca="false">SQRT((C2/B2)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0176331566136861</v>
+        <f aca="false">ROUND(SQRT((D2/C2)^2+(-$D$2/$C$2)^2), 4)</f>
+        <v>0.0178</v>
       </c>
       <c r="H2" s="0" t="n">
-        <f aca="false">SQRT(ABS(D2))</f>
+        <f aca="false">ROUND(SQRT(ABS(B2)), 4)</f>
         <v>0</v>
       </c>
     </row>
@@ -500,360 +501,372 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="0" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D3" s="0" t="n">
-        <v>-0.012</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E3" s="1" t="n">
-        <f aca="false">(0.003*ABS(D3)+0.001)/SQRT(3)</f>
-        <v>0.000598134878880452</v>
+        <f aca="false">ROUND((0.003*ABS(B3)+0.001)/SQRT(3), 5)</f>
+        <v>0.0006</v>
       </c>
       <c r="F3" s="1" t="n">
-        <f aca="false">LN(B3/$B$2)</f>
-        <v>-0.204794412646013</v>
+        <f aca="false">ROUND(LN(C3/$C$2),4)</f>
+        <v>-0.2048</v>
       </c>
       <c r="G3" s="1" t="n">
-        <f aca="false">SQRT((C3/B3)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0197388927170629</v>
+        <f aca="false">ROUND(SQRT((D3/C3)^2+(-$D$2/$C$2)^2), 4)</f>
+        <v>0.0199</v>
       </c>
       <c r="H3" s="0" t="n">
-        <f aca="false">SQRT(ABS(D3))</f>
-        <v>0.109544511501033</v>
+        <f aca="false">ROUND(SQRT(ABS(B3)), 4)</f>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="0" t="n">
+        <v>-0.018</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>0.105</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D4" s="0" t="n">
-        <v>-0.018</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E4" s="1" t="n">
-        <f aca="false">(0.003*ABS(D4)+0.001)/SQRT(3)</f>
-        <v>0.000608527183725866</v>
+        <f aca="false">ROUND((0.003*ABS(B4)+0.001)/SQRT(3), 5)</f>
+        <v>0.00061</v>
       </c>
       <c r="F4" s="1" t="n">
-        <f aca="false">LN(B4/$B$2)</f>
-        <v>-0.251314428280906</v>
+        <f aca="false">ROUND(LN(C4/$C$2),4)</f>
+        <v>-0.2513</v>
       </c>
       <c r="G4" s="1" t="n">
-        <f aca="false">SQRT((C4/B4)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0203090076479504</v>
+        <f aca="false">ROUND(SQRT((D4/C4)^2+(-$D$2/$C$2)^2), 4)</f>
+        <v>0.0205</v>
       </c>
       <c r="H4" s="0" t="n">
-        <f aca="false">SQRT(ABS(D4))</f>
-        <v>0.134164078649987</v>
+        <f aca="false">ROUND(SQRT(ABS(B4)), 4)</f>
+        <v>0.1342</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="0" t="n">
+        <v>-0.021</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>0.1</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D5" s="0" t="n">
-        <v>-0.021</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E5" s="1" t="n">
-        <f aca="false">(0.003*ABS(D5)+0.001)/SQRT(3)</f>
-        <v>0.000613723336148572</v>
+        <f aca="false">ROUND((0.003*ABS(B5)+0.001)/SQRT(3), 5)</f>
+        <v>0.00061</v>
       </c>
       <c r="F5" s="1" t="n">
-        <f aca="false">LN(B5/$B$2)</f>
-        <v>-0.300104592450338</v>
+        <f aca="false">ROUND(LN(C5/$C$2),4)</f>
+        <v>-0.3001</v>
       </c>
       <c r="G5" s="1" t="n">
-        <f aca="false">SQRT((C5/B5)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0209474924373951</v>
+        <f aca="false">ROUND(SQRT((D5/C5)^2+(-$D$2/$C$2)^2), 4)</f>
+        <v>0.0212</v>
       </c>
       <c r="H5" s="0" t="n">
-        <f aca="false">SQRT(ABS(D5))</f>
-        <v>0.144913767461894</v>
+        <f aca="false">ROUND(SQRT(ABS(B5)), 4)</f>
+        <v>0.1449</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="0" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>0.09</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D6" s="0" t="n">
-        <v>-0.03</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E6" s="1" t="n">
-        <f aca="false">(0.003*ABS(D6)+0.001)/SQRT(3)</f>
-        <v>0.000629311793416692</v>
+        <f aca="false">ROUND((0.003*ABS(B6)+0.001)/SQRT(3), 5)</f>
+        <v>0.00063</v>
       </c>
       <c r="F6" s="1" t="n">
-        <f aca="false">LN(B6/$B$2)</f>
-        <v>-0.405465108108164</v>
+        <f aca="false">ROUND(LN(C6/$C$2),4)</f>
+        <v>-0.4055</v>
       </c>
       <c r="G6" s="1" t="n">
-        <f aca="false">SQRT((C6/B6)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0224779524148558</v>
+        <f aca="false">ROUND(SQRT((D6/C6)^2+(-$D$2/$C$2)^2), 4)</f>
+        <v>0.0227</v>
       </c>
       <c r="H6" s="0" t="n">
-        <f aca="false">SQRT(ABS(D6))</f>
-        <v>0.173205080756888</v>
+        <f aca="false">ROUND(SQRT(ABS(B6)), 4)</f>
+        <v>0.1732</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="0" t="n">
+        <v>-0.038</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>0.08</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D7" s="0" t="n">
-        <v>-0.038</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E7" s="1" t="n">
-        <f aca="false">(0.003*ABS(D7)+0.001)/SQRT(3)</f>
-        <v>0.000643168199877243</v>
+        <f aca="false">ROUND((0.003*ABS(B7)+0.001)/SQRT(3), 5)</f>
+        <v>0.00064</v>
       </c>
       <c r="F7" s="1" t="n">
-        <f aca="false">LN(B7/$B$2)</f>
-        <v>-0.523248143764548</v>
+        <f aca="false">ROUND(LN(C7/$C$2),4)</f>
+        <v>-0.5232</v>
       </c>
       <c r="G7" s="1" t="n">
-        <f aca="false">SQRT((C7/B7)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0244575640531662</v>
+        <f aca="false">ROUND(SQRT((D7/C7)^2+(-$D$2/$C$2)^2), 4)</f>
+        <v>0.0247</v>
       </c>
       <c r="H7" s="0" t="n">
-        <f aca="false">SQRT(ABS(D7))</f>
-        <v>0.194935886896179</v>
+        <f aca="false">ROUND(SQRT(ABS(B7)), 4)</f>
+        <v>0.1949</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="0" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>0.07</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D8" s="0" t="n">
-        <v>-0.045</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E8" s="1" t="n">
-        <f aca="false">(0.003*ABS(D8)+0.001)/SQRT(3)</f>
-        <v>0.000655292555530225</v>
+        <f aca="false">ROUND((0.003*ABS(B8)+0.001)/SQRT(3), 5)</f>
+        <v>0.00066</v>
       </c>
       <c r="F8" s="1" t="n">
-        <f aca="false">LN(B8/$B$2)</f>
-        <v>-0.65677953638907</v>
+        <f aca="false">ROUND(LN(C8/$C$2),4)</f>
+        <v>-0.6568</v>
       </c>
       <c r="G8" s="1" t="n">
-        <f aca="false">SQRT((C8/B8)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0270868122635056</v>
+        <f aca="false">ROUND(SQRT((D8/C8)^2+(-$D$2/$C$2)^2), 4)</f>
+        <v>0.0274</v>
       </c>
       <c r="H8" s="0" t="n">
-        <f aca="false">SQRT(ABS(D8))</f>
-        <v>0.212132034355964</v>
+        <f aca="false">ROUND(SQRT(ABS(B8)), 4)</f>
+        <v>0.2121</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="0" t="n">
+        <v>-0.055</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>0.065</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D9" s="0" t="n">
-        <v>-0.055</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E9" s="1" t="n">
-        <f aca="false">(0.003*ABS(D9)+0.001)/SQRT(3)</f>
-        <v>0.000672613063605914</v>
+        <f aca="false">ROUND((0.003*ABS(B9)+0.001)/SQRT(3), 5)</f>
+        <v>0.00067</v>
       </c>
       <c r="F9" s="1" t="n">
-        <f aca="false">LN(B9/$B$2)</f>
-        <v>-0.730887508542792</v>
+        <f aca="false">ROUND(LN(C9/$C$2),4)</f>
+        <v>-0.7309</v>
       </c>
       <c r="G9" s="1" t="n">
-        <f aca="false">SQRT((C9/B9)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0287415299857819</v>
+        <f aca="false">ROUND(SQRT((D9/C9)^2+(-$D$2/$C$2)^2), 4)</f>
+        <v>0.029</v>
       </c>
       <c r="H9" s="0" t="n">
-        <f aca="false">SQRT(ABS(D9))</f>
-        <v>0.234520787991171</v>
+        <f aca="false">ROUND(SQRT(ABS(B9)), 4)</f>
+        <v>0.2345</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="0" t="n">
+        <v>-0.065</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>0.055</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D10" s="0" t="n">
-        <v>-0.065</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E10" s="1" t="n">
-        <f aca="false">(0.003*ABS(D10)+0.001)/SQRT(3)</f>
-        <v>0.000689933571681603</v>
+        <f aca="false">ROUND((0.003*ABS(B10)+0.001)/SQRT(3), 5)</f>
+        <v>0.00069</v>
       </c>
       <c r="F10" s="1" t="n">
-        <f aca="false">LN(B10/$B$2)</f>
-        <v>-0.897941593205958</v>
+        <f aca="false">ROUND(LN(C10/$C$2),4)</f>
+        <v>-0.8979</v>
       </c>
       <c r="G10" s="1" t="n">
-        <f aca="false">SQRT((C10/B10)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0330469851051302</v>
+        <f aca="false">ROUND(SQRT((D10/C10)^2+(-$D$2/$C$2)^2), 4)</f>
+        <v>0.0334</v>
       </c>
       <c r="H10" s="0" t="n">
-        <f aca="false">SQRT(ABS(D10))</f>
-        <v>0.254950975679639</v>
+        <f aca="false">ROUND(SQRT(ABS(B10)), 4)</f>
+        <v>0.255</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="0" t="n">
+        <v>-0.075</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D11" s="0" t="n">
-        <v>-0.075</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E11" s="1" t="n">
-        <f aca="false">(0.003*ABS(D11)+0.001)/SQRT(3)</f>
-        <v>0.000707254079757292</v>
+        <f aca="false">ROUND((0.003*ABS(B11)+0.001)/SQRT(3), 5)</f>
+        <v>0.00071</v>
       </c>
       <c r="F11" s="1" t="n">
-        <f aca="false">LN(B11/$B$2)</f>
-        <v>-0.993251773010283</v>
+        <f aca="false">ROUND(LN(C11/$C$2),4)</f>
+        <v>-0.9933</v>
       </c>
       <c r="G11" s="1" t="n">
-        <f aca="false">SQRT((C11/B11)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0358998250610602</v>
+        <f aca="false">ROUND(SQRT((D11/C11)^2+(-$D$2/$C$2)^2), 4)</f>
+        <v>0.0363</v>
       </c>
       <c r="H11" s="0" t="n">
-        <f aca="false">SQRT(ABS(D11))</f>
-        <v>0.273861278752583</v>
+        <f aca="false">ROUND(SQRT(ABS(B11)), 4)</f>
+        <v>0.2739</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="0" t="n">
+        <v>-0.089</v>
+      </c>
+      <c r="C12" s="2" t="n">
         <v>0.04</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D12" s="0" t="n">
-        <v>-0.089</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E12" s="1" t="n">
-        <f aca="false">(0.003*ABS(D12)+0.001)/SQRT(3)</f>
-        <v>0.000731502791063256</v>
+        <f aca="false">ROUND((0.003*ABS(B12)+0.001)/SQRT(3), 5)</f>
+        <v>0.00073</v>
       </c>
       <c r="F12" s="1" t="n">
-        <f aca="false">LN(B12/$B$2)</f>
-        <v>-1.21639532432449</v>
+        <f aca="false">ROUND(LN(C12/$C$2),4)</f>
+        <v>-1.2164</v>
       </c>
       <c r="G12" s="1" t="n">
-        <f aca="false">SQRT((C12/B12)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0438896051407931</v>
+        <f aca="false">ROUND(SQRT((D12/C12)^2+(-$D$2/$C$2)^2), 4)</f>
+        <v>0.0443</v>
       </c>
       <c r="H12" s="0" t="n">
-        <f aca="false">SQRT(ABS(D12))</f>
-        <v>0.298328677803526</v>
+        <f aca="false">ROUND(SQRT(ABS(B12)), 4)</f>
+        <v>0.2983</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="0" t="n">
+        <v>-0.097</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>0.035</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D13" s="0" t="n">
-        <v>-0.097</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E13" s="1" t="n">
-        <f aca="false">(0.003*ABS(D13)+0.001)/SQRT(3)</f>
-        <v>0.000745359197523807</v>
+        <f aca="false">ROUND((0.003*ABS(B13)+0.001)/SQRT(3), 5)</f>
+        <v>0.00075</v>
       </c>
       <c r="F13" s="1" t="n">
-        <f aca="false">LN(B13/$B$2)</f>
-        <v>-1.34992671694902</v>
+        <f aca="false">ROUND(LN(C13/$C$2),4)</f>
+        <v>-1.3499</v>
       </c>
       <c r="G13" s="1" t="n">
-        <f aca="false">SQRT((C13/B13)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0496828871559356</v>
+        <f aca="false">ROUND(SQRT((D13/C13)^2+(-$D$2/$C$2)^2), 4)</f>
+        <v>0.0502</v>
       </c>
       <c r="H13" s="0" t="n">
-        <f aca="false">SQRT(ABS(D13))</f>
-        <v>0.311448230047949</v>
+        <f aca="false">ROUND(SQRT(ABS(B13)), 4)</f>
+        <v>0.3114</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="0" t="n">
+        <v>-0.107</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>0.03</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>0.00168325082306035</v>
-      </c>
       <c r="D14" s="0" t="n">
-        <v>-0.107</v>
+        <f aca="false">ROUND(0.00168325082306035,4)</f>
+        <v>0.0017</v>
       </c>
       <c r="E14" s="1" t="n">
-        <f aca="false">(0.003*ABS(D14)+0.001)/SQRT(3)</f>
-        <v>0.000762679705599496</v>
+        <f aca="false">ROUND((0.003*ABS(B14)+0.001)/SQRT(3), 5)</f>
+        <v>0.00076</v>
       </c>
       <c r="F14" s="1" t="n">
-        <f aca="false">LN(B14/$B$2)</f>
-        <v>-1.50407739677627</v>
+        <f aca="false">ROUND(LN(C14/$C$2),4)</f>
+        <v>-1.5041</v>
       </c>
       <c r="G14" s="1" t="n">
-        <f aca="false">SQRT((C14/B14)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0574770585036287</v>
+        <f aca="false">ROUND(SQRT((D14/C14)^2+(-$D$2/$C$2)^2), 4)</f>
+        <v>0.058</v>
       </c>
       <c r="H14" s="0" t="n">
-        <f aca="false">SQRT(ABS(D14))</f>
-        <v>0.327108544675923</v>
+        <f aca="false">ROUND(SQRT(ABS(B14)), 4)</f>
+        <v>0.3271</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
